--- a/Laporan_Benchmark_BBM.xlsx
+++ b/Laporan_Benchmark_BBM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4115C24-9A56-4107-BCBB-04E98557A908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DB3AE8-4316-4E57-BC6E-F3EF33870D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1253,8 +1253,8 @@
   <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>7589.39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>4730.18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>4642.5600000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>4520.1000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>3456.39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>2554.9299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>2122.36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>1467.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>1241.31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>1214.08</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>1194.08</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>1181.05</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>974.75</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>792.78</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>772.8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>563.24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>496.32</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>490.77</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>462.15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>341.31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>292.64</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>217.89</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>217.35</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>193.32</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>164.22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>78.61</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>3312.98</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>194.7</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>84</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>84</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>84</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>84</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>84</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>84</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>84</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>84</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>84</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>84</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>84</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>84</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>134</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>10270.26</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>134</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>9544.2800000000007</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>134</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>9496.2000000000007</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>9151.7000000000007</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>9145.68</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>134</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>9112</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>8008.2</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>7874.93</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>7584.16</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>7310</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>7140</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>6918.17</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>6106</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>134</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>6046.56</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>6001.6</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>134</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>5945.58</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>5845.67</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>4867.5200000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>134</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>2399.56</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>2274.23</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>2216.64</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>1101.2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>1044.58</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>1022.34</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>805.6</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>622.35</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>134</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>548.86</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>531.6</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>134</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>317.33999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>134</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>268.94</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>205.5</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>134</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>264</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>7817.4</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>264</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>5975.28</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>264</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>3340.26</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>264</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>3030.96</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>264</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>1341.61</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>264</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1186.68</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>264</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>421.84</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>264</v>
       </c>
@@ -7449,9 +7449,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J193" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
+    <filterColumn colId="2">
       <filters>
-        <filter val="BOROS (Merah)"/>
+        <filter val="28T UP - (-)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Laporan_Benchmark_BBM.xlsx
+++ b/Laporan_Benchmark_BBM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DB3AE8-4316-4E57-BC6E-F3EF33870D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C815519C-25A1-4699-84E3-20F081CA1377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1253,8 +1253,8 @@
   <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7454,6 +7454,9 @@
         <filter val="28T UP - (-)"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:J111">
+      <sortCondition descending="1" ref="J1:J193"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Laporan_Benchmark_BBM.xlsx
+++ b/Laporan_Benchmark_BBM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C815519C-25A1-4699-84E3-20F081CA1377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74A633-1730-46AE-8658-A4497FBDC67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1252,9 +1252,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1314,28 +1314,28 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>12945</v>
+        <v>3720.2</v>
       </c>
       <c r="F2">
-        <v>1951</v>
+        <v>1353</v>
       </c>
       <c r="G2">
-        <v>6.64</v>
+        <v>2.75</v>
       </c>
       <c r="H2">
         <v>2.75</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J2">
-        <v>7589.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1346,28 +1346,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>9075.77</v>
+        <v>2490</v>
       </c>
       <c r="F3">
-        <v>1582</v>
+        <v>944.56</v>
       </c>
       <c r="G3">
-        <v>5.74</v>
+        <v>2.64</v>
       </c>
       <c r="H3">
         <v>2.75</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <v>4730.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1378,28 +1378,28 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>7969.38</v>
+        <v>2771.12</v>
       </c>
       <c r="F4">
-        <v>1209</v>
+        <v>1056</v>
       </c>
       <c r="G4">
-        <v>6.59</v>
+        <v>2.62</v>
       </c>
       <c r="H4">
         <v>2.75</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <v>4642.5600000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1410,28 +1410,28 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>9557.01</v>
+        <v>1455.2</v>
       </c>
       <c r="F5">
-        <v>1830</v>
+        <v>555</v>
       </c>
       <c r="G5">
-        <v>5.22</v>
+        <v>2.62</v>
       </c>
       <c r="H5">
         <v>2.75</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J5">
-        <v>4520.1000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1442,28 +1442,28 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>6364.47</v>
+        <v>3956.14</v>
       </c>
       <c r="F6">
-        <v>1057</v>
+        <v>1519</v>
       </c>
       <c r="G6">
-        <v>6.02</v>
+        <v>2.6</v>
       </c>
       <c r="H6">
         <v>2.75</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J6">
-        <v>3456.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1474,60 +1474,60 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E7">
-        <v>5098</v>
+        <v>3495</v>
       </c>
       <c r="F7">
-        <v>925.70000000000027</v>
+        <v>1350</v>
       </c>
       <c r="G7">
-        <v>5.51</v>
+        <v>2.59</v>
       </c>
       <c r="H7">
         <v>2.75</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J7">
-        <v>2554.9299999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E8">
-        <v>5126.62</v>
+        <v>1372.26</v>
       </c>
       <c r="F8">
-        <v>1094</v>
+        <v>538</v>
       </c>
       <c r="G8">
-        <v>4.6900000000000004</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H8">
         <v>2.75</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J8">
-        <v>2122.36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1538,28 +1538,28 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E9">
-        <v>4575</v>
+        <v>5560.24</v>
       </c>
       <c r="F9">
-        <v>1129</v>
+        <v>2230</v>
       </c>
       <c r="G9">
-        <v>4.05</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H9">
         <v>2.75</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J9">
-        <v>1467.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1570,28 +1570,28 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>6192.93</v>
+        <v>1487.17</v>
       </c>
       <c r="F10">
-        <v>1799</v>
+        <v>615</v>
       </c>
       <c r="G10">
-        <v>3.44</v>
+        <v>2.42</v>
       </c>
       <c r="H10">
         <v>2.75</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J10">
-        <v>1241.31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1602,28 +1602,28 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>4190.08</v>
+        <v>315</v>
       </c>
       <c r="F11">
-        <v>1084</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="G11">
-        <v>3.87</v>
+        <v>2.42</v>
       </c>
       <c r="H11">
         <v>2.75</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J11">
-        <v>1214.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1634,28 +1634,28 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E12">
-        <v>3604.58</v>
+        <v>239.45</v>
       </c>
       <c r="F12">
-        <v>878</v>
+        <v>100</v>
       </c>
       <c r="G12">
-        <v>4.1100000000000003</v>
+        <v>2.39</v>
       </c>
       <c r="H12">
         <v>2.75</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J12">
-        <v>1194.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1666,28 +1666,28 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>5288.07</v>
+        <v>3810</v>
       </c>
       <c r="F13">
-        <v>1495</v>
+        <v>1615</v>
       </c>
       <c r="G13">
-        <v>3.54</v>
+        <v>2.36</v>
       </c>
       <c r="H13">
         <v>2.75</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J13">
-        <v>1181.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1698,28 +1698,28 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E14">
-        <v>2504</v>
+        <v>4064.79</v>
       </c>
       <c r="F14">
-        <v>557</v>
+        <v>1768</v>
       </c>
       <c r="G14">
-        <v>4.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H14">
         <v>2.75</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J14">
-        <v>974.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1730,28 +1730,28 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>3775</v>
+        <v>925</v>
       </c>
       <c r="F15">
-        <v>1086</v>
+        <v>418</v>
       </c>
       <c r="G15">
-        <v>3.48</v>
+        <v>2.21</v>
       </c>
       <c r="H15">
         <v>2.75</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J15">
-        <v>792.78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1762,28 +1762,28 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E16">
-        <v>6851.94</v>
+        <v>208.06</v>
       </c>
       <c r="F16">
-        <v>2208</v>
+        <v>105</v>
       </c>
       <c r="G16">
-        <v>3.1</v>
+        <v>1.98</v>
       </c>
       <c r="H16">
         <v>2.75</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J16">
-        <v>772.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1794,28 +1794,28 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>2910</v>
+        <v>3236.46</v>
       </c>
       <c r="F17">
-        <v>853.4</v>
+        <v>1688</v>
       </c>
       <c r="G17">
-        <v>3.41</v>
+        <v>1.92</v>
       </c>
       <c r="H17">
         <v>2.75</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J17">
-        <v>563.24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1826,28 +1826,28 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>2050</v>
+        <v>861.17</v>
       </c>
       <c r="F18">
-        <v>564</v>
+        <v>470</v>
       </c>
       <c r="G18">
-        <v>3.63</v>
+        <v>1.83</v>
       </c>
       <c r="H18">
         <v>2.75</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J18">
-        <v>496.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1858,28 +1858,28 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E19">
-        <v>1590</v>
+        <v>1078.1500000000001</v>
       </c>
       <c r="F19">
-        <v>399</v>
+        <v>589</v>
       </c>
       <c r="G19">
-        <v>3.98</v>
+        <v>1.83</v>
       </c>
       <c r="H19">
         <v>2.75</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J19">
-        <v>490.77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1890,28 +1890,28 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E20">
-        <v>3722.86</v>
+        <v>462</v>
       </c>
       <c r="F20">
-        <v>1185</v>
+        <v>255</v>
       </c>
       <c r="G20">
-        <v>3.14</v>
+        <v>1.81</v>
       </c>
       <c r="H20">
         <v>2.75</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J20">
-        <v>462.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1922,28 +1922,28 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E21">
-        <v>1349.22</v>
+        <v>748.56</v>
       </c>
       <c r="F21">
-        <v>367</v>
+        <v>460</v>
       </c>
       <c r="G21">
-        <v>3.68</v>
+        <v>1.63</v>
       </c>
       <c r="H21">
         <v>2.75</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J21">
-        <v>341.31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1954,28 +1954,28 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E22">
-        <v>940.81</v>
+        <v>5630.86</v>
       </c>
       <c r="F22">
-        <v>236</v>
+        <v>3519</v>
       </c>
       <c r="G22">
-        <v>3.99</v>
+        <v>1.6</v>
       </c>
       <c r="H22">
         <v>2.75</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J22">
-        <v>292.64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1986,28 +1986,28 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E23">
-        <v>440.89</v>
+        <v>582</v>
       </c>
       <c r="F23">
-        <v>81</v>
+        <v>385.5</v>
       </c>
       <c r="G23">
-        <v>5.44</v>
+        <v>1.51</v>
       </c>
       <c r="H23">
         <v>2.75</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J23">
-        <v>217.89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2018,28 +2018,28 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E24">
-        <v>4206.1400000000003</v>
+        <v>902</v>
       </c>
       <c r="F24">
-        <v>1449</v>
+        <v>600.09999999999945</v>
       </c>
       <c r="G24">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H24">
         <v>2.75</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J24">
-        <v>217.35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2050,28 +2050,28 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E25">
-        <v>4620.75</v>
+        <v>682.94</v>
       </c>
       <c r="F25">
-        <v>1611</v>
+        <v>461</v>
       </c>
       <c r="G25">
-        <v>2.87</v>
+        <v>1.48</v>
       </c>
       <c r="H25">
         <v>2.75</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J25">
-        <v>193.32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2082,28 +2082,28 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E26">
-        <v>1145</v>
+        <v>698</v>
       </c>
       <c r="F26">
-        <v>357</v>
+        <v>473</v>
       </c>
       <c r="G26">
-        <v>3.21</v>
+        <v>1.48</v>
       </c>
       <c r="H26">
         <v>2.75</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J26">
-        <v>164.22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2114,28 +2114,28 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E27">
-        <v>715</v>
+        <v>220.36</v>
       </c>
       <c r="F27">
-        <v>231.2</v>
+        <v>159</v>
       </c>
       <c r="G27">
-        <v>3.09</v>
+        <v>1.39</v>
       </c>
       <c r="H27">
         <v>2.75</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J27">
-        <v>78.61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2146,28 +2146,28 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E28">
-        <v>993.87</v>
+        <v>750.74</v>
       </c>
       <c r="F28">
-        <v>355</v>
+        <v>558</v>
       </c>
       <c r="G28">
-        <v>2.8</v>
+        <v>1.35</v>
       </c>
       <c r="H28">
         <v>2.75</v>
       </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J28">
-        <v>17.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2178,16 +2178,16 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E29">
-        <v>3720.2</v>
+        <v>504.25</v>
       </c>
       <c r="F29">
-        <v>1353</v>
+        <v>401</v>
       </c>
       <c r="G29">
-        <v>2.75</v>
+        <v>1.26</v>
       </c>
       <c r="H29">
         <v>2.75</v>
@@ -2210,25 +2210,25 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E30">
-        <v>2490</v>
+        <v>993.87</v>
       </c>
       <c r="F30">
-        <v>944.56</v>
+        <v>355</v>
       </c>
       <c r="G30">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="H30">
         <v>2.75</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2242,25 +2242,25 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>2771.12</v>
+        <v>715</v>
       </c>
       <c r="F31">
-        <v>1056</v>
+        <v>231.2</v>
       </c>
       <c r="G31">
-        <v>2.62</v>
+        <v>3.09</v>
       </c>
       <c r="H31">
         <v>2.75</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>78.61</v>
       </c>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2274,25 +2274,25 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E32">
-        <v>1455.2</v>
+        <v>1145</v>
       </c>
       <c r="F32">
-        <v>555</v>
+        <v>357</v>
       </c>
       <c r="G32">
-        <v>2.62</v>
+        <v>3.21</v>
       </c>
       <c r="H32">
         <v>2.75</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>164.22</v>
       </c>
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2306,25 +2306,25 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>3956.14</v>
+        <v>4620.75</v>
       </c>
       <c r="F33">
-        <v>1519</v>
+        <v>1611</v>
       </c>
       <c r="G33">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="H33">
         <v>2.75</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>193.32</v>
       </c>
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2338,25 +2338,25 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>3495</v>
+        <v>4206.1400000000003</v>
       </c>
       <c r="F34">
-        <v>1350</v>
+        <v>1449</v>
       </c>
       <c r="G34">
-        <v>2.59</v>
+        <v>2.9</v>
       </c>
       <c r="H34">
         <v>2.75</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>217.35</v>
       </c>
     </row>
     <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2364,31 +2364,31 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E35">
-        <v>1372.26</v>
+        <v>440.89</v>
       </c>
       <c r="F35">
-        <v>538</v>
+        <v>81</v>
       </c>
       <c r="G35">
-        <v>2.5499999999999998</v>
+        <v>5.44</v>
       </c>
       <c r="H35">
         <v>2.75</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>217.89</v>
       </c>
     </row>
     <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2402,25 +2402,25 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E36">
-        <v>5560.24</v>
+        <v>940.81</v>
       </c>
       <c r="F36">
-        <v>2230</v>
+        <v>236</v>
       </c>
       <c r="G36">
-        <v>2.4900000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="H36">
         <v>2.75</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>292.64</v>
       </c>
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2434,25 +2434,25 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E37">
-        <v>1487.17</v>
+        <v>1349.22</v>
       </c>
       <c r="F37">
-        <v>615</v>
+        <v>367</v>
       </c>
       <c r="G37">
-        <v>2.42</v>
+        <v>3.68</v>
       </c>
       <c r="H37">
         <v>2.75</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>341.31</v>
       </c>
     </row>
     <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2466,25 +2466,25 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E38">
-        <v>315</v>
+        <v>3722.86</v>
       </c>
       <c r="F38">
-        <v>130.30000000000001</v>
+        <v>1185</v>
       </c>
       <c r="G38">
-        <v>2.42</v>
+        <v>3.14</v>
       </c>
       <c r="H38">
         <v>2.75</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>462.15</v>
       </c>
     </row>
     <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2498,25 +2498,25 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>239.45</v>
+        <v>1590</v>
       </c>
       <c r="F39">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="G39">
-        <v>2.39</v>
+        <v>3.98</v>
       </c>
       <c r="H39">
         <v>2.75</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>490.77</v>
       </c>
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2530,25 +2530,25 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E40">
-        <v>3810</v>
+        <v>2050</v>
       </c>
       <c r="F40">
-        <v>1615</v>
+        <v>564</v>
       </c>
       <c r="G40">
-        <v>2.36</v>
+        <v>3.63</v>
       </c>
       <c r="H40">
         <v>2.75</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>496.32</v>
       </c>
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2562,25 +2562,25 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E41">
-        <v>4064.79</v>
+        <v>2910</v>
       </c>
       <c r="F41">
-        <v>1768</v>
+        <v>853.4</v>
       </c>
       <c r="G41">
-        <v>2.2999999999999998</v>
+        <v>3.41</v>
       </c>
       <c r="H41">
         <v>2.75</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>563.24</v>
       </c>
     </row>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2594,25 +2594,25 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>925</v>
+        <v>6851.94</v>
       </c>
       <c r="F42">
-        <v>418</v>
+        <v>2208</v>
       </c>
       <c r="G42">
-        <v>2.21</v>
+        <v>3.1</v>
       </c>
       <c r="H42">
         <v>2.75</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>772.8</v>
       </c>
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2626,25 +2626,25 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>208.06</v>
+        <v>3775</v>
       </c>
       <c r="F43">
-        <v>105</v>
+        <v>1086</v>
       </c>
       <c r="G43">
-        <v>1.98</v>
+        <v>3.48</v>
       </c>
       <c r="H43">
         <v>2.75</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>792.78</v>
       </c>
     </row>
     <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2658,25 +2658,25 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E44">
-        <v>3236.46</v>
+        <v>2504</v>
       </c>
       <c r="F44">
-        <v>1688</v>
+        <v>557</v>
       </c>
       <c r="G44">
-        <v>1.92</v>
+        <v>4.5</v>
       </c>
       <c r="H44">
         <v>2.75</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>974.75</v>
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2690,25 +2690,25 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>861.17</v>
+        <v>5288.07</v>
       </c>
       <c r="F45">
-        <v>470</v>
+        <v>1495</v>
       </c>
       <c r="G45">
-        <v>1.83</v>
+        <v>3.54</v>
       </c>
       <c r="H45">
         <v>2.75</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1181.05</v>
       </c>
     </row>
     <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2722,25 +2722,25 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E46">
-        <v>1078.1500000000001</v>
+        <v>3604.58</v>
       </c>
       <c r="F46">
-        <v>589</v>
+        <v>878</v>
       </c>
       <c r="G46">
-        <v>1.83</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="H46">
         <v>2.75</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1194.08</v>
       </c>
     </row>
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2754,25 +2754,25 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E47">
-        <v>462</v>
+        <v>4190.08</v>
       </c>
       <c r="F47">
-        <v>255</v>
+        <v>1084</v>
       </c>
       <c r="G47">
-        <v>1.81</v>
+        <v>3.87</v>
       </c>
       <c r="H47">
         <v>2.75</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1214.08</v>
       </c>
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2786,25 +2786,25 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E48">
-        <v>748.56</v>
+        <v>6192.93</v>
       </c>
       <c r="F48">
-        <v>460</v>
+        <v>1799</v>
       </c>
       <c r="G48">
-        <v>1.63</v>
+        <v>3.44</v>
       </c>
       <c r="H48">
         <v>2.75</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1241.31</v>
       </c>
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2818,25 +2818,25 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <v>5630.86</v>
+        <v>4575</v>
       </c>
       <c r="F49">
-        <v>3519</v>
+        <v>1129</v>
       </c>
       <c r="G49">
-        <v>1.6</v>
+        <v>4.05</v>
       </c>
       <c r="H49">
         <v>2.75</v>
       </c>
       <c r="I49" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1467.7</v>
       </c>
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2850,25 +2850,25 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E50">
-        <v>582</v>
+        <v>5126.62</v>
       </c>
       <c r="F50">
-        <v>385.5</v>
+        <v>1094</v>
       </c>
       <c r="G50">
-        <v>1.51</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="H50">
         <v>2.75</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>2122.36</v>
       </c>
     </row>
     <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2882,25 +2882,25 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E51">
-        <v>902</v>
+        <v>5098</v>
       </c>
       <c r="F51">
-        <v>600.09999999999945</v>
+        <v>925.70000000000027</v>
       </c>
       <c r="G51">
-        <v>1.5</v>
+        <v>5.51</v>
       </c>
       <c r="H51">
         <v>2.75</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>2554.9299999999998</v>
       </c>
     </row>
     <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2914,25 +2914,25 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E52">
-        <v>682.94</v>
+        <v>6364.47</v>
       </c>
       <c r="F52">
-        <v>461</v>
+        <v>1057</v>
       </c>
       <c r="G52">
-        <v>1.48</v>
+        <v>6.02</v>
       </c>
       <c r="H52">
         <v>2.75</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>3456.39</v>
       </c>
     </row>
     <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2946,25 +2946,25 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>698</v>
+        <v>9557.01</v>
       </c>
       <c r="F53">
-        <v>473</v>
+        <v>1830</v>
       </c>
       <c r="G53">
-        <v>1.48</v>
+        <v>5.22</v>
       </c>
       <c r="H53">
         <v>2.75</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>4520.1000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -2978,25 +2978,25 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E54">
-        <v>220.36</v>
+        <v>7969.38</v>
       </c>
       <c r="F54">
-        <v>159</v>
+        <v>1209</v>
       </c>
       <c r="G54">
-        <v>1.39</v>
+        <v>6.59</v>
       </c>
       <c r="H54">
         <v>2.75</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>4642.5600000000004</v>
       </c>
     </row>
     <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -3010,25 +3010,25 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E55">
-        <v>750.74</v>
+        <v>9075.77</v>
       </c>
       <c r="F55">
-        <v>558</v>
+        <v>1582</v>
       </c>
       <c r="G55">
-        <v>1.35</v>
+        <v>5.74</v>
       </c>
       <c r="H55">
         <v>2.75</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>4730.18</v>
       </c>
     </row>
     <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -3042,112 +3042,112 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>504.25</v>
+        <v>12945</v>
       </c>
       <c r="F56">
-        <v>401</v>
+        <v>1951</v>
       </c>
       <c r="G56">
-        <v>1.26</v>
+        <v>6.64</v>
       </c>
       <c r="H56">
         <v>2.75</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>7589.39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E57">
-        <v>37725.910000000003</v>
+        <v>26410.080000000002</v>
       </c>
       <c r="F57">
-        <v>4477</v>
+        <v>3434</v>
       </c>
       <c r="G57">
-        <v>8.43</v>
+        <v>7.69</v>
       </c>
       <c r="H57">
         <v>7.69</v>
       </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J57">
-        <v>3312.98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E58">
-        <v>19427.830000000002</v>
+        <v>9649.9699999999993</v>
       </c>
       <c r="F58">
-        <v>2489</v>
+        <v>1401</v>
       </c>
       <c r="G58">
-        <v>7.81</v>
+        <v>6.89</v>
       </c>
       <c r="H58">
         <v>7.69</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J58">
-        <v>298.68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E59">
-        <v>26410.080000000002</v>
+        <v>209.73</v>
       </c>
       <c r="F59">
-        <v>3434</v>
+        <v>328</v>
       </c>
       <c r="G59">
-        <v>7.69</v>
+        <v>0.64</v>
       </c>
       <c r="H59">
         <v>7.69</v>
@@ -3164,31 +3164,31 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E60">
-        <v>9649.9699999999993</v>
+        <v>19427.830000000002</v>
       </c>
       <c r="F60">
-        <v>1401</v>
+        <v>2489</v>
       </c>
       <c r="G60">
-        <v>6.89</v>
+        <v>7.81</v>
       </c>
       <c r="H60">
         <v>7.69</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>298.68</v>
       </c>
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -3196,34 +3196,34 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
         <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E61">
-        <v>209.73</v>
+        <v>37725.910000000003</v>
       </c>
       <c r="F61">
-        <v>328</v>
+        <v>4477</v>
       </c>
       <c r="G61">
-        <v>0.64</v>
+        <v>8.43</v>
       </c>
       <c r="H61">
         <v>7.69</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>3312.98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -3234,25 +3234,25 @@
         <v>81</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E62">
-        <v>123.41</v>
+        <v>82.3</v>
       </c>
       <c r="F62">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G62">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="H62">
         <v>0.6</v>
       </c>
       <c r="I62" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J62">
-        <v>12.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -3266,25 +3266,25 @@
         <v>81</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E63">
-        <v>82.3</v>
+        <v>123.41</v>
       </c>
       <c r="F63">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="G63">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="H63">
         <v>0.6</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E64">
-        <v>60370.98</v>
+        <v>47960.94</v>
       </c>
       <c r="F64">
-        <v>2963</v>
+        <v>3782</v>
       </c>
       <c r="G64">
-        <v>20.37</v>
+        <v>12.68</v>
       </c>
       <c r="H64">
         <v>12.89</v>
       </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J64">
-        <v>22163.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3330,25 +3330,25 @@
         <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E65">
-        <v>70818.649999999994</v>
+        <v>18312</v>
       </c>
       <c r="F65">
-        <v>4053</v>
+        <v>1457.8000000000011</v>
       </c>
       <c r="G65">
-        <v>17.47</v>
+        <v>12.56</v>
       </c>
       <c r="H65">
         <v>12.89</v>
       </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J65">
-        <v>18562.740000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3362,25 +3362,25 @@
         <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E66">
-        <v>59566</v>
+        <v>27855</v>
       </c>
       <c r="F66">
-        <v>3561</v>
+        <v>2222</v>
       </c>
       <c r="G66">
-        <v>16.73</v>
+        <v>12.54</v>
       </c>
       <c r="H66">
         <v>12.89</v>
       </c>
       <c r="I66" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J66">
-        <v>13674.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3394,25 +3394,25 @@
         <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E67">
-        <v>49834.239999999998</v>
+        <v>20585</v>
       </c>
       <c r="F67">
-        <v>2922</v>
+        <v>1681</v>
       </c>
       <c r="G67">
-        <v>17.05</v>
+        <v>12.25</v>
       </c>
       <c r="H67">
         <v>12.89</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J67">
-        <v>12155.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3426,25 +3426,25 @@
         <v>85</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E68">
-        <v>55200.07</v>
+        <v>33529</v>
       </c>
       <c r="F68">
-        <v>3372</v>
+        <v>2759</v>
       </c>
       <c r="G68">
-        <v>16.37</v>
+        <v>12.15</v>
       </c>
       <c r="H68">
         <v>12.89</v>
       </c>
       <c r="I68" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J68">
-        <v>11734.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3458,25 +3458,25 @@
         <v>85</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="E69">
-        <v>58801</v>
+        <v>43127.7</v>
       </c>
       <c r="F69">
-        <v>3741</v>
+        <v>3585</v>
       </c>
       <c r="G69">
-        <v>15.72</v>
+        <v>12.03</v>
       </c>
       <c r="H69">
         <v>12.89</v>
       </c>
       <c r="I69" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J69">
-        <v>10587.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3490,25 +3490,25 @@
         <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E70">
-        <v>39546.21</v>
+        <v>25070</v>
       </c>
       <c r="F70">
-        <v>2247</v>
+        <v>2104</v>
       </c>
       <c r="G70">
-        <v>17.600000000000001</v>
+        <v>11.92</v>
       </c>
       <c r="H70">
         <v>12.89</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J70">
-        <v>10583.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3522,25 +3522,25 @@
         <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E71">
-        <v>31173.93</v>
+        <v>24040.87</v>
       </c>
       <c r="F71">
-        <v>1639</v>
+        <v>2042</v>
       </c>
       <c r="G71">
-        <v>19.02</v>
+        <v>11.77</v>
       </c>
       <c r="H71">
         <v>12.89</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J71">
-        <v>10047.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3554,25 +3554,25 @@
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E72">
-        <v>64503.69</v>
+        <v>15137</v>
       </c>
       <c r="F72">
-        <v>4279</v>
+        <v>1290</v>
       </c>
       <c r="G72">
-        <v>15.07</v>
+        <v>11.73</v>
       </c>
       <c r="H72">
         <v>12.89</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J72">
-        <v>9328.2199999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3586,25 +3586,25 @@
         <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E73">
-        <v>20350</v>
+        <v>6129</v>
       </c>
       <c r="F73">
-        <v>972</v>
+        <v>524</v>
       </c>
       <c r="G73">
-        <v>20.94</v>
+        <v>11.7</v>
       </c>
       <c r="H73">
         <v>12.89</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J73">
-        <v>7824.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3618,25 +3618,25 @@
         <v>85</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E74">
-        <v>28635.56</v>
+        <v>9700</v>
       </c>
       <c r="F74">
-        <v>1714</v>
+        <v>835.60000000000036</v>
       </c>
       <c r="G74">
-        <v>16.71</v>
+        <v>11.61</v>
       </c>
       <c r="H74">
         <v>12.89</v>
       </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J74">
-        <v>6547.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3650,25 +3650,25 @@
         <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E75">
-        <v>43211.72</v>
+        <v>14035</v>
       </c>
       <c r="F75">
-        <v>2860</v>
+        <v>1246.5</v>
       </c>
       <c r="G75">
-        <v>15.11</v>
+        <v>11.26</v>
       </c>
       <c r="H75">
         <v>12.89</v>
       </c>
       <c r="I75" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J75">
-        <v>6349.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3682,25 +3682,25 @@
         <v>85</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E76">
-        <v>25428.94</v>
+        <v>6943</v>
       </c>
       <c r="F76">
-        <v>1563</v>
+        <v>621.10000000000036</v>
       </c>
       <c r="G76">
-        <v>16.27</v>
+        <v>11.18</v>
       </c>
       <c r="H76">
         <v>12.89</v>
       </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J76">
-        <v>5282.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3714,25 +3714,25 @@
         <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E77">
-        <v>39003.120000000003</v>
+        <v>6700</v>
       </c>
       <c r="F77">
-        <v>2621</v>
+        <v>651</v>
       </c>
       <c r="G77">
-        <v>14.88</v>
+        <v>10.29</v>
       </c>
       <c r="H77">
         <v>12.89</v>
       </c>
       <c r="I77" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J77">
-        <v>5215.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3746,25 +3746,25 @@
         <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E78">
-        <v>42484.29</v>
+        <v>2905</v>
       </c>
       <c r="F78">
-        <v>2898</v>
+        <v>285.89999999999958</v>
       </c>
       <c r="G78">
-        <v>14.66</v>
+        <v>10.16</v>
       </c>
       <c r="H78">
         <v>12.89</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J78">
-        <v>5129.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3778,25 +3778,25 @@
         <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E79">
-        <v>8146</v>
+        <v>23694</v>
       </c>
       <c r="F79">
-        <v>364.90000000000038</v>
+        <v>2599.2000000000012</v>
       </c>
       <c r="G79">
-        <v>22.32</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="H79">
         <v>12.89</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J79">
-        <v>3441.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3810,25 +3810,25 @@
         <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E80">
-        <v>17885</v>
+        <v>2761</v>
       </c>
       <c r="F80">
-        <v>1132.200000000001</v>
+        <v>322.00000000000028</v>
       </c>
       <c r="G80">
-        <v>15.8</v>
+        <v>8.57</v>
       </c>
       <c r="H80">
         <v>12.89</v>
       </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J80">
-        <v>3294.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3842,25 +3842,25 @@
         <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E81">
-        <v>7316</v>
+        <v>4730</v>
       </c>
       <c r="F81">
-        <v>466</v>
+        <v>568</v>
       </c>
       <c r="G81">
-        <v>15.7</v>
+        <v>8.33</v>
       </c>
       <c r="H81">
         <v>12.89</v>
       </c>
       <c r="I81" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J81">
-        <v>1309.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3874,25 +3874,25 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E82">
-        <v>50796.29</v>
+        <v>1421</v>
       </c>
       <c r="F82">
-        <v>3849</v>
+        <v>213</v>
       </c>
       <c r="G82">
-        <v>13.2</v>
+        <v>6.67</v>
       </c>
       <c r="H82">
         <v>12.89</v>
       </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J82">
-        <v>1193.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3906,25 +3906,25 @@
         <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E83">
-        <v>50998.93</v>
+        <v>1585</v>
       </c>
       <c r="F83">
-        <v>3880</v>
+        <v>241.09999999999991</v>
       </c>
       <c r="G83">
-        <v>13.14</v>
+        <v>6.57</v>
       </c>
       <c r="H83">
         <v>12.89</v>
       </c>
       <c r="I83" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J83">
-        <v>970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3938,25 +3938,25 @@
         <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E84">
-        <v>3730</v>
+        <v>46428.46</v>
       </c>
       <c r="F84">
-        <v>243.3000000000001</v>
+        <v>7704</v>
       </c>
       <c r="G84">
-        <v>15.33</v>
+        <v>6.03</v>
       </c>
       <c r="H84">
         <v>12.89</v>
       </c>
       <c r="I84" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J84">
-        <v>593.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3970,25 +3970,25 @@
         <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="E85">
-        <v>29700</v>
+        <v>46414.63</v>
       </c>
       <c r="F85">
-        <v>2266</v>
+        <v>7916</v>
       </c>
       <c r="G85">
-        <v>13.11</v>
+        <v>5.86</v>
       </c>
       <c r="H85">
         <v>12.89</v>
       </c>
       <c r="I85" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J85">
-        <v>498.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4002,25 +4002,25 @@
         <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E86">
-        <v>19500</v>
+        <v>45242.37</v>
       </c>
       <c r="F86">
-        <v>1482</v>
+        <v>7816</v>
       </c>
       <c r="G86">
-        <v>13.16</v>
+        <v>5.79</v>
       </c>
       <c r="H86">
         <v>12.89</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J86">
-        <v>400.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4034,28 +4034,28 @@
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E87">
-        <v>11600</v>
+        <v>820.44</v>
       </c>
       <c r="F87">
-        <v>885</v>
+        <v>4001.3</v>
       </c>
       <c r="G87">
-        <v>13.11</v>
+        <v>0.21</v>
       </c>
       <c r="H87">
         <v>12.89</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J87">
-        <v>194.7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -4066,28 +4066,28 @@
         <v>85</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E88">
-        <v>47960.94</v>
+        <v>11600</v>
       </c>
       <c r="F88">
-        <v>3782</v>
+        <v>885</v>
       </c>
       <c r="G88">
-        <v>12.68</v>
+        <v>13.11</v>
       </c>
       <c r="H88">
         <v>12.89</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>194.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -4098,28 +4098,28 @@
         <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E89">
-        <v>18312</v>
+        <v>19500</v>
       </c>
       <c r="F89">
-        <v>1457.8000000000011</v>
+        <v>1482</v>
       </c>
       <c r="G89">
-        <v>12.56</v>
+        <v>13.16</v>
       </c>
       <c r="H89">
         <v>12.89</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>400.14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -4130,28 +4130,28 @@
         <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E90">
-        <v>27855</v>
+        <v>29700</v>
       </c>
       <c r="F90">
-        <v>2222</v>
+        <v>2266</v>
       </c>
       <c r="G90">
-        <v>12.54</v>
+        <v>13.11</v>
       </c>
       <c r="H90">
         <v>12.89</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>498.52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -4162,28 +4162,28 @@
         <v>85</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E91">
-        <v>20585</v>
+        <v>3730</v>
       </c>
       <c r="F91">
-        <v>1681</v>
+        <v>243.3000000000001</v>
       </c>
       <c r="G91">
-        <v>12.25</v>
+        <v>15.33</v>
       </c>
       <c r="H91">
         <v>12.89</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>593.65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -4194,28 +4194,28 @@
         <v>85</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E92">
-        <v>33529</v>
+        <v>50998.93</v>
       </c>
       <c r="F92">
-        <v>2759</v>
+        <v>3880</v>
       </c>
       <c r="G92">
-        <v>12.15</v>
+        <v>13.14</v>
       </c>
       <c r="H92">
         <v>12.89</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -4226,28 +4226,28 @@
         <v>85</v>
       </c>
       <c r="D93" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E93">
-        <v>43127.7</v>
+        <v>50796.29</v>
       </c>
       <c r="F93">
-        <v>3585</v>
+        <v>3849</v>
       </c>
       <c r="G93">
-        <v>12.03</v>
+        <v>13.2</v>
       </c>
       <c r="H93">
         <v>12.89</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1193.19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>84</v>
       </c>
@@ -4258,28 +4258,28 @@
         <v>85</v>
       </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E94">
-        <v>25070</v>
+        <v>7316</v>
       </c>
       <c r="F94">
-        <v>2104</v>
+        <v>466</v>
       </c>
       <c r="G94">
-        <v>11.92</v>
+        <v>15.7</v>
       </c>
       <c r="H94">
         <v>12.89</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1309.46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>84</v>
       </c>
@@ -4290,28 +4290,28 @@
         <v>85</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E95">
-        <v>24040.87</v>
+        <v>17885</v>
       </c>
       <c r="F95">
-        <v>2042</v>
+        <v>1132.200000000001</v>
       </c>
       <c r="G95">
-        <v>11.77</v>
+        <v>15.8</v>
       </c>
       <c r="H95">
         <v>12.89</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3294.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>84</v>
       </c>
@@ -4322,28 +4322,28 @@
         <v>85</v>
       </c>
       <c r="D96" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E96">
-        <v>15137</v>
+        <v>8146</v>
       </c>
       <c r="F96">
-        <v>1290</v>
+        <v>364.90000000000038</v>
       </c>
       <c r="G96">
-        <v>11.73</v>
+        <v>22.32</v>
       </c>
       <c r="H96">
         <v>12.89</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3441.01</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>84</v>
       </c>
@@ -4354,28 +4354,28 @@
         <v>85</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E97">
-        <v>6129</v>
+        <v>42484.29</v>
       </c>
       <c r="F97">
-        <v>524</v>
+        <v>2898</v>
       </c>
       <c r="G97">
-        <v>11.7</v>
+        <v>14.66</v>
       </c>
       <c r="H97">
         <v>12.89</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5129.46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>84</v>
       </c>
@@ -4386,28 +4386,28 @@
         <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E98">
-        <v>9700</v>
+        <v>39003.120000000003</v>
       </c>
       <c r="F98">
-        <v>835.60000000000036</v>
+        <v>2621</v>
       </c>
       <c r="G98">
-        <v>11.61</v>
+        <v>14.88</v>
       </c>
       <c r="H98">
         <v>12.89</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5215.79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>84</v>
       </c>
@@ -4418,28 +4418,28 @@
         <v>85</v>
       </c>
       <c r="D99" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E99">
-        <v>14035</v>
+        <v>25428.94</v>
       </c>
       <c r="F99">
-        <v>1246.5</v>
+        <v>1563</v>
       </c>
       <c r="G99">
-        <v>11.26</v>
+        <v>16.27</v>
       </c>
       <c r="H99">
         <v>12.89</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5282.94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>84</v>
       </c>
@@ -4450,28 +4450,28 @@
         <v>85</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E100">
-        <v>6943</v>
+        <v>43211.72</v>
       </c>
       <c r="F100">
-        <v>621.10000000000036</v>
+        <v>2860</v>
       </c>
       <c r="G100">
-        <v>11.18</v>
+        <v>15.11</v>
       </c>
       <c r="H100">
         <v>12.89</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6349.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -4482,28 +4482,28 @@
         <v>85</v>
       </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E101">
-        <v>6700</v>
+        <v>28635.56</v>
       </c>
       <c r="F101">
-        <v>651</v>
+        <v>1714</v>
       </c>
       <c r="G101">
-        <v>10.29</v>
+        <v>16.71</v>
       </c>
       <c r="H101">
         <v>12.89</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6547.48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>84</v>
       </c>
@@ -4514,28 +4514,28 @@
         <v>85</v>
       </c>
       <c r="D102" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E102">
-        <v>2905</v>
+        <v>20350</v>
       </c>
       <c r="F102">
-        <v>285.89999999999958</v>
+        <v>972</v>
       </c>
       <c r="G102">
-        <v>10.16</v>
+        <v>20.94</v>
       </c>
       <c r="H102">
         <v>12.89</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7824.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>84</v>
       </c>
@@ -4546,28 +4546,28 @@
         <v>85</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E103">
-        <v>23694</v>
+        <v>64503.69</v>
       </c>
       <c r="F103">
-        <v>2599.2000000000012</v>
+        <v>4279</v>
       </c>
       <c r="G103">
-        <v>9.1199999999999992</v>
+        <v>15.07</v>
       </c>
       <c r="H103">
         <v>12.89</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9328.2199999999993</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>84</v>
       </c>
@@ -4578,28 +4578,28 @@
         <v>85</v>
       </c>
       <c r="D104" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E104">
-        <v>2761</v>
+        <v>31173.93</v>
       </c>
       <c r="F104">
-        <v>322.00000000000028</v>
+        <v>1639</v>
       </c>
       <c r="G104">
-        <v>8.57</v>
+        <v>19.02</v>
       </c>
       <c r="H104">
         <v>12.89</v>
       </c>
       <c r="I104" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10047.07</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -4610,28 +4610,28 @@
         <v>85</v>
       </c>
       <c r="D105" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E105">
-        <v>4730</v>
+        <v>39546.21</v>
       </c>
       <c r="F105">
-        <v>568</v>
+        <v>2247</v>
       </c>
       <c r="G105">
-        <v>8.33</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H105">
         <v>12.89</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10583.37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -4642,28 +4642,28 @@
         <v>85</v>
       </c>
       <c r="D106" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="E106">
-        <v>1421</v>
+        <v>58801</v>
       </c>
       <c r="F106">
-        <v>213</v>
+        <v>3741</v>
       </c>
       <c r="G106">
-        <v>6.67</v>
+        <v>15.72</v>
       </c>
       <c r="H106">
         <v>12.89</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10587.03</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -4674,28 +4674,28 @@
         <v>85</v>
       </c>
       <c r="D107" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="E107">
-        <v>1585</v>
+        <v>55200.07</v>
       </c>
       <c r="F107">
-        <v>241.09999999999991</v>
+        <v>3372</v>
       </c>
       <c r="G107">
-        <v>6.57</v>
+        <v>16.37</v>
       </c>
       <c r="H107">
         <v>12.89</v>
       </c>
       <c r="I107" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11734.56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -4706,28 +4706,28 @@
         <v>85</v>
       </c>
       <c r="D108" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="E108">
-        <v>46428.46</v>
+        <v>49834.239999999998</v>
       </c>
       <c r="F108">
-        <v>7704</v>
+        <v>2922</v>
       </c>
       <c r="G108">
-        <v>6.03</v>
+        <v>17.05</v>
       </c>
       <c r="H108">
         <v>12.89</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12155.52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>84</v>
       </c>
@@ -4738,28 +4738,28 @@
         <v>85</v>
       </c>
       <c r="D109" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="E109">
-        <v>46414.63</v>
+        <v>59566</v>
       </c>
       <c r="F109">
-        <v>7916</v>
+        <v>3561</v>
       </c>
       <c r="G109">
-        <v>5.86</v>
+        <v>16.73</v>
       </c>
       <c r="H109">
         <v>12.89</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13674.24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -4770,28 +4770,28 @@
         <v>85</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="E110">
-        <v>45242.37</v>
+        <v>70818.649999999994</v>
       </c>
       <c r="F110">
-        <v>7816</v>
+        <v>4053</v>
       </c>
       <c r="G110">
-        <v>5.79</v>
+        <v>17.47</v>
       </c>
       <c r="H110">
         <v>12.89</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18562.740000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>84</v>
       </c>
@@ -4802,1072 +4802,1072 @@
         <v>85</v>
       </c>
       <c r="D111" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="E111">
-        <v>820.44</v>
+        <v>60370.98</v>
       </c>
       <c r="F111">
-        <v>4001.3</v>
+        <v>2963</v>
       </c>
       <c r="G111">
-        <v>0.21</v>
+        <v>20.37</v>
       </c>
       <c r="H111">
         <v>12.89</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>22163.24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="B112" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="C112" t="s">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="D112" t="s">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="E112">
-        <v>24644.01</v>
+        <v>38926</v>
       </c>
       <c r="F112">
-        <v>3458</v>
+        <v>2658</v>
       </c>
       <c r="G112">
-        <v>7.13</v>
+        <v>14.64</v>
       </c>
       <c r="H112">
-        <v>4.16</v>
+        <v>14.64</v>
       </c>
       <c r="I112" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J112">
-        <v>10270.26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>134</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="C113" t="s">
         <v>136</v>
       </c>
       <c r="D113" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="E113">
-        <v>20634.28</v>
+        <v>16393.439999999999</v>
       </c>
       <c r="F113">
-        <v>2666</v>
+        <v>3989</v>
       </c>
       <c r="G113">
-        <v>7.74</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="H113">
         <v>4.16</v>
       </c>
       <c r="I113" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J113">
-        <v>9544.2800000000007</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
         <v>136</v>
       </c>
       <c r="D114" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="E114">
-        <v>21106.98</v>
+        <v>19383.849999999999</v>
       </c>
       <c r="F114">
-        <v>2793</v>
+        <v>4805</v>
       </c>
       <c r="G114">
-        <v>7.56</v>
+        <v>4.03</v>
       </c>
       <c r="H114">
         <v>4.16</v>
       </c>
       <c r="I114" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J114">
-        <v>9496.2000000000007</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="C115" t="s">
         <v>136</v>
       </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="E115">
-        <v>25688.14</v>
+        <v>13677.95</v>
       </c>
       <c r="F115">
-        <v>3979</v>
+        <v>3456</v>
       </c>
       <c r="G115">
-        <v>6.46</v>
+        <v>3.96</v>
       </c>
       <c r="H115">
         <v>4.16</v>
       </c>
       <c r="I115" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J115">
-        <v>9151.7000000000007</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C116" t="s">
         <v>136</v>
       </c>
       <c r="D116" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="E116">
-        <v>27084.01</v>
+        <v>17569.82</v>
       </c>
       <c r="F116">
-        <v>4314</v>
+        <v>4503</v>
       </c>
       <c r="G116">
-        <v>6.28</v>
+        <v>3.9</v>
       </c>
       <c r="H116">
         <v>4.16</v>
       </c>
       <c r="I116" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J116">
-        <v>9145.68</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>134</v>
       </c>
       <c r="B117" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="C117" t="s">
         <v>136</v>
       </c>
       <c r="D117" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="E117">
-        <v>20417.77</v>
+        <v>16742.560000000001</v>
       </c>
       <c r="F117">
-        <v>2720</v>
+        <v>4300</v>
       </c>
       <c r="G117">
-        <v>7.51</v>
+        <v>3.89</v>
       </c>
       <c r="H117">
         <v>4.16</v>
       </c>
       <c r="I117" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J117">
-        <v>9112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>134</v>
       </c>
       <c r="B118" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="C118" t="s">
         <v>136</v>
       </c>
       <c r="D118" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="E118">
-        <v>20359.150000000001</v>
+        <v>14280.31</v>
       </c>
       <c r="F118">
-        <v>2966</v>
+        <v>3669</v>
       </c>
       <c r="G118">
-        <v>6.86</v>
+        <v>3.89</v>
       </c>
       <c r="H118">
         <v>4.16</v>
       </c>
       <c r="I118" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J118">
-        <v>8008.2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="C119" t="s">
         <v>136</v>
       </c>
       <c r="D119" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="E119">
-        <v>22956.67</v>
+        <v>8400</v>
       </c>
       <c r="F119">
-        <v>3629</v>
+        <v>2167</v>
       </c>
       <c r="G119">
-        <v>6.33</v>
+        <v>3.88</v>
       </c>
       <c r="H119">
         <v>4.16</v>
       </c>
       <c r="I119" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J119">
-        <v>7874.93</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>134</v>
       </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="C120" t="s">
         <v>136</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="E120">
-        <v>22343.85</v>
+        <v>16735.310000000001</v>
       </c>
       <c r="F120">
-        <v>3544</v>
+        <v>4328</v>
       </c>
       <c r="G120">
-        <v>6.3</v>
+        <v>3.87</v>
       </c>
       <c r="H120">
         <v>4.16</v>
       </c>
       <c r="I120" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J120">
-        <v>7584.16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>134</v>
       </c>
       <c r="B121" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C121" t="s">
         <v>136</v>
       </c>
       <c r="D121" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="E121">
-        <v>22529.22</v>
+        <v>14790.16</v>
       </c>
       <c r="F121">
-        <v>3655</v>
+        <v>3890</v>
       </c>
       <c r="G121">
-        <v>6.16</v>
+        <v>3.8</v>
       </c>
       <c r="H121">
         <v>4.16</v>
       </c>
       <c r="I121" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J121">
-        <v>7310</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>134</v>
       </c>
       <c r="B122" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="C122" t="s">
         <v>136</v>
       </c>
       <c r="D122" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="E122">
-        <v>18777.66</v>
+        <v>18763.04</v>
       </c>
       <c r="F122">
-        <v>2800</v>
+        <v>4939</v>
       </c>
       <c r="G122">
-        <v>6.71</v>
+        <v>3.8</v>
       </c>
       <c r="H122">
         <v>4.16</v>
       </c>
       <c r="I122" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J122">
-        <v>7140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="C123" t="s">
         <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="E123">
-        <v>24809.42</v>
+        <v>10470</v>
       </c>
       <c r="F123">
-        <v>4297</v>
+        <v>2785</v>
       </c>
       <c r="G123">
-        <v>5.77</v>
+        <v>3.76</v>
       </c>
       <c r="H123">
         <v>4.16</v>
       </c>
       <c r="I123" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J123">
-        <v>6918.17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="C124" t="s">
         <v>136</v>
       </c>
       <c r="D124" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="E124">
-        <v>20879.95</v>
+        <v>21344.09</v>
       </c>
       <c r="F124">
-        <v>3550</v>
+        <v>5714</v>
       </c>
       <c r="G124">
-        <v>5.88</v>
+        <v>3.74</v>
       </c>
       <c r="H124">
         <v>4.16</v>
       </c>
       <c r="I124" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J124">
-        <v>6106</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="C125" t="s">
         <v>136</v>
       </c>
       <c r="D125" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="E125">
-        <v>11743</v>
+        <v>11625</v>
       </c>
       <c r="F125">
-        <v>1368</v>
+        <v>3137</v>
       </c>
       <c r="G125">
-        <v>8.58</v>
+        <v>3.71</v>
       </c>
       <c r="H125">
         <v>4.16</v>
       </c>
       <c r="I125" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J125">
-        <v>6046.56</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="C126" t="s">
         <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="E126">
-        <v>22122.63</v>
+        <v>15626.17</v>
       </c>
       <c r="F126">
-        <v>3872</v>
+        <v>4238</v>
       </c>
       <c r="G126">
-        <v>5.71</v>
+        <v>3.69</v>
       </c>
       <c r="H126">
         <v>4.16</v>
       </c>
       <c r="I126" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J126">
-        <v>6001.6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="C127" t="s">
         <v>136</v>
       </c>
       <c r="D127" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="E127">
-        <v>20146.310000000001</v>
+        <v>16618.7</v>
       </c>
       <c r="F127">
-        <v>3417</v>
+        <v>4594</v>
       </c>
       <c r="G127">
-        <v>5.9</v>
+        <v>3.62</v>
       </c>
       <c r="H127">
         <v>4.16</v>
       </c>
       <c r="I127" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J127">
-        <v>5945.58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="C128" t="s">
         <v>136</v>
       </c>
       <c r="D128" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="E128">
-        <v>19893.66</v>
+        <v>18229.400000000001</v>
       </c>
       <c r="F128">
-        <v>3379</v>
+        <v>5073</v>
       </c>
       <c r="G128">
-        <v>5.89</v>
+        <v>3.59</v>
       </c>
       <c r="H128">
         <v>4.16</v>
       </c>
       <c r="I128" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J128">
-        <v>5845.67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
       </c>
       <c r="D129" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="E129">
-        <v>17225.689999999999</v>
+        <v>7400</v>
       </c>
       <c r="F129">
-        <v>2968</v>
+        <v>2072</v>
       </c>
       <c r="G129">
-        <v>5.8</v>
+        <v>3.57</v>
       </c>
       <c r="H129">
         <v>4.16</v>
       </c>
       <c r="I129" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J129">
-        <v>4867.5200000000004</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>134</v>
       </c>
       <c r="B130" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="C130" t="s">
         <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="E130">
-        <v>6577.7000000000007</v>
+        <v>16424.25</v>
       </c>
       <c r="F130">
-        <v>1004</v>
+        <v>4601</v>
       </c>
       <c r="G130">
-        <v>6.55</v>
+        <v>3.57</v>
       </c>
       <c r="H130">
         <v>4.16</v>
       </c>
       <c r="I130" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J130">
-        <v>2399.56</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="C131" t="s">
         <v>136</v>
       </c>
       <c r="D131" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="E131">
-        <v>20131.509999999998</v>
+        <v>17973.98</v>
       </c>
       <c r="F131">
-        <v>4291</v>
+        <v>5051</v>
       </c>
       <c r="G131">
-        <v>4.6900000000000004</v>
+        <v>3.56</v>
       </c>
       <c r="H131">
         <v>4.16</v>
       </c>
       <c r="I131" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J131">
-        <v>2274.23</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="C132" t="s">
         <v>136</v>
       </c>
       <c r="D132" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="E132">
-        <v>11815.43</v>
+        <v>15936.9</v>
       </c>
       <c r="F132">
-        <v>2309</v>
+        <v>4483</v>
       </c>
       <c r="G132">
-        <v>5.12</v>
+        <v>3.55</v>
       </c>
       <c r="H132">
         <v>4.16</v>
       </c>
       <c r="I132" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J132">
-        <v>2216.64</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="C133" t="s">
         <v>136</v>
       </c>
       <c r="D133" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="E133">
-        <v>12565</v>
+        <v>18777.650000000001</v>
       </c>
       <c r="F133">
-        <v>2753</v>
+        <v>5336</v>
       </c>
       <c r="G133">
-        <v>4.5599999999999996</v>
+        <v>3.52</v>
       </c>
       <c r="H133">
         <v>4.16</v>
       </c>
       <c r="I133" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J133">
-        <v>1101.2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="C134" t="s">
         <v>136</v>
       </c>
       <c r="D134" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="E134">
-        <v>16036.37</v>
+        <v>18030.87</v>
       </c>
       <c r="F134">
-        <v>3602</v>
+        <v>5124</v>
       </c>
       <c r="G134">
-        <v>4.45</v>
+        <v>3.52</v>
       </c>
       <c r="H134">
         <v>4.16</v>
       </c>
       <c r="I134" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J134">
-        <v>1044.58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="E135">
-        <v>13894.8</v>
+        <v>6350</v>
       </c>
       <c r="F135">
-        <v>3098</v>
+        <v>1807</v>
       </c>
       <c r="G135">
-        <v>4.49</v>
+        <v>3.51</v>
       </c>
       <c r="H135">
         <v>4.16</v>
       </c>
       <c r="I135" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J135">
-        <v>1022.34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="C136" t="s">
         <v>136</v>
       </c>
       <c r="D136" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="E136">
-        <v>18445.02</v>
+        <v>17515.59</v>
       </c>
       <c r="F136">
-        <v>4240</v>
+        <v>4997</v>
       </c>
       <c r="G136">
-        <v>4.3499999999999996</v>
+        <v>3.51</v>
       </c>
       <c r="H136">
         <v>4.16</v>
       </c>
       <c r="I136" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J136">
-        <v>805.6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="C137" t="s">
         <v>136</v>
       </c>
       <c r="D137" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="E137">
-        <v>17876.080000000002</v>
+        <v>16583.830000000002</v>
       </c>
       <c r="F137">
-        <v>4149</v>
+        <v>4753</v>
       </c>
       <c r="G137">
-        <v>4.3099999999999996</v>
+        <v>3.49</v>
       </c>
       <c r="H137">
         <v>4.16</v>
       </c>
       <c r="I137" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J137">
-        <v>622.35</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="C138" t="s">
         <v>136</v>
       </c>
       <c r="D138" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="E138">
-        <v>9335.36</v>
+        <v>12877.57</v>
       </c>
       <c r="F138">
-        <v>2111</v>
+        <v>4016</v>
       </c>
       <c r="G138">
-        <v>4.42</v>
+        <v>3.21</v>
       </c>
       <c r="H138">
         <v>4.16</v>
       </c>
       <c r="I138" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J138">
-        <v>548.86</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>134</v>
       </c>
       <c r="B139" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="C139" t="s">
         <v>136</v>
       </c>
       <c r="D139" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="E139">
-        <v>18941</v>
+        <v>5876.6100000000006</v>
       </c>
       <c r="F139">
-        <v>4430</v>
+        <v>1914</v>
       </c>
       <c r="G139">
-        <v>4.28</v>
+        <v>3.07</v>
       </c>
       <c r="H139">
         <v>4.16</v>
       </c>
       <c r="I139" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J139">
-        <v>531.6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>134</v>
       </c>
       <c r="B140" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="C140" t="s">
         <v>136</v>
       </c>
       <c r="D140" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="E140">
-        <v>22309.07</v>
+        <v>2062</v>
       </c>
       <c r="F140">
-        <v>5289</v>
+        <v>745</v>
       </c>
       <c r="G140">
-        <v>4.22</v>
+        <v>2.77</v>
       </c>
       <c r="H140">
         <v>4.16</v>
       </c>
       <c r="I140" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J140">
-        <v>317.33999999999997</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>134</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="C141" t="s">
         <v>136</v>
       </c>
       <c r="D141" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="E141">
-        <v>16233.77</v>
+        <v>16492.169999999998</v>
       </c>
       <c r="F141">
-        <v>3842</v>
+        <v>6298</v>
       </c>
       <c r="G141">
-        <v>4.2300000000000004</v>
+        <v>2.62</v>
       </c>
       <c r="H141">
         <v>4.16</v>
       </c>
       <c r="I141" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J141">
-        <v>268.94</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>134</v>
       </c>
       <c r="B142" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="C142" t="s">
         <v>136</v>
       </c>
       <c r="D142" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="E142">
-        <v>17296.53</v>
+        <v>4385</v>
       </c>
       <c r="F142">
-        <v>4110</v>
+        <v>1745</v>
       </c>
       <c r="G142">
-        <v>4.21</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H142">
         <v>4.16</v>
       </c>
       <c r="I142" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J142">
-        <v>205.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>134</v>
       </c>
       <c r="B143" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="C143" t="s">
         <v>136</v>
       </c>
       <c r="D143" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="E143">
-        <v>1920</v>
+        <v>20050.72</v>
       </c>
       <c r="F143">
-        <v>453.59999999999991</v>
+        <v>28637</v>
       </c>
       <c r="G143">
-        <v>4.2300000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="H143">
         <v>4.16</v>
       </c>
       <c r="I143" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J143">
-        <v>31.75</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="C144" t="s">
         <v>136</v>
       </c>
       <c r="D144" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="E144">
-        <v>16393.439999999999</v>
+        <v>16862.43</v>
       </c>
       <c r="F144">
-        <v>3989</v>
+        <v>34405</v>
       </c>
       <c r="G144">
-        <v>4.1100000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="H144">
         <v>4.16</v>
@@ -5884,31 +5884,31 @@
         <v>134</v>
       </c>
       <c r="B145" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C145" t="s">
         <v>136</v>
       </c>
       <c r="D145" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E145">
-        <v>19383.849999999999</v>
+        <v>1920</v>
       </c>
       <c r="F145">
-        <v>4805</v>
+        <v>453.59999999999991</v>
       </c>
       <c r="G145">
-        <v>4.03</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="H145">
         <v>4.16</v>
       </c>
       <c r="I145" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5916,31 +5916,31 @@
         <v>134</v>
       </c>
       <c r="B146" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C146" t="s">
         <v>136</v>
       </c>
       <c r="D146" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E146">
-        <v>13677.95</v>
+        <v>17296.53</v>
       </c>
       <c r="F146">
-        <v>3456</v>
+        <v>4110</v>
       </c>
       <c r="G146">
-        <v>3.96</v>
+        <v>4.21</v>
       </c>
       <c r="H146">
         <v>4.16</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>205.5</v>
       </c>
     </row>
     <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5948,31 +5948,31 @@
         <v>134</v>
       </c>
       <c r="B147" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C147" t="s">
         <v>136</v>
       </c>
       <c r="D147" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E147">
-        <v>17569.82</v>
+        <v>16233.77</v>
       </c>
       <c r="F147">
-        <v>4503</v>
+        <v>3842</v>
       </c>
       <c r="G147">
-        <v>3.9</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="H147">
         <v>4.16</v>
       </c>
       <c r="I147" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>268.94</v>
       </c>
     </row>
     <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -5980,31 +5980,31 @@
         <v>134</v>
       </c>
       <c r="B148" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C148" t="s">
         <v>136</v>
       </c>
       <c r="D148" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E148">
-        <v>16742.560000000001</v>
+        <v>22309.07</v>
       </c>
       <c r="F148">
-        <v>4300</v>
+        <v>5289</v>
       </c>
       <c r="G148">
-        <v>3.89</v>
+        <v>4.22</v>
       </c>
       <c r="H148">
         <v>4.16</v>
       </c>
       <c r="I148" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>317.33999999999997</v>
       </c>
     </row>
     <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6012,31 +6012,31 @@
         <v>134</v>
       </c>
       <c r="B149" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C149" t="s">
         <v>136</v>
       </c>
       <c r="D149" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="E149">
-        <v>14280.31</v>
+        <v>18941</v>
       </c>
       <c r="F149">
-        <v>3669</v>
+        <v>4430</v>
       </c>
       <c r="G149">
-        <v>3.89</v>
+        <v>4.28</v>
       </c>
       <c r="H149">
         <v>4.16</v>
       </c>
       <c r="I149" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>531.6</v>
       </c>
     </row>
     <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6044,31 +6044,31 @@
         <v>134</v>
       </c>
       <c r="B150" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C150" t="s">
         <v>136</v>
       </c>
       <c r="D150" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E150">
-        <v>8400</v>
+        <v>9335.36</v>
       </c>
       <c r="F150">
-        <v>2167</v>
+        <v>2111</v>
       </c>
       <c r="G150">
-        <v>3.88</v>
+        <v>4.42</v>
       </c>
       <c r="H150">
         <v>4.16</v>
       </c>
       <c r="I150" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>548.86</v>
       </c>
     </row>
     <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6076,31 +6076,31 @@
         <v>134</v>
       </c>
       <c r="B151" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C151" t="s">
         <v>136</v>
       </c>
       <c r="D151" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="E151">
-        <v>16735.310000000001</v>
+        <v>17876.080000000002</v>
       </c>
       <c r="F151">
-        <v>4328</v>
+        <v>4149</v>
       </c>
       <c r="G151">
-        <v>3.87</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="H151">
         <v>4.16</v>
       </c>
       <c r="I151" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>622.35</v>
       </c>
     </row>
     <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6108,31 +6108,31 @@
         <v>134</v>
       </c>
       <c r="B152" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="C152" t="s">
         <v>136</v>
       </c>
       <c r="D152" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="E152">
-        <v>14790.16</v>
+        <v>18445.02</v>
       </c>
       <c r="F152">
-        <v>3890</v>
+        <v>4240</v>
       </c>
       <c r="G152">
-        <v>3.8</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H152">
         <v>4.16</v>
       </c>
       <c r="I152" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>805.6</v>
       </c>
     </row>
     <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6140,31 +6140,31 @@
         <v>134</v>
       </c>
       <c r="B153" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="C153" t="s">
         <v>136</v>
       </c>
       <c r="D153" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="E153">
-        <v>18763.04</v>
+        <v>13894.8</v>
       </c>
       <c r="F153">
-        <v>4939</v>
+        <v>3098</v>
       </c>
       <c r="G153">
-        <v>3.8</v>
+        <v>4.49</v>
       </c>
       <c r="H153">
         <v>4.16</v>
       </c>
       <c r="I153" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1022.34</v>
       </c>
     </row>
     <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6172,31 +6172,31 @@
         <v>134</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="C154" t="s">
         <v>136</v>
       </c>
       <c r="D154" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="E154">
-        <v>10470</v>
+        <v>16036.37</v>
       </c>
       <c r="F154">
-        <v>2785</v>
+        <v>3602</v>
       </c>
       <c r="G154">
-        <v>3.76</v>
+        <v>4.45</v>
       </c>
       <c r="H154">
         <v>4.16</v>
       </c>
       <c r="I154" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1044.58</v>
       </c>
     </row>
     <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6204,31 +6204,31 @@
         <v>134</v>
       </c>
       <c r="B155" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="C155" t="s">
         <v>136</v>
       </c>
       <c r="D155" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="E155">
-        <v>21344.09</v>
+        <v>12565</v>
       </c>
       <c r="F155">
-        <v>5714</v>
+        <v>2753</v>
       </c>
       <c r="G155">
-        <v>3.74</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="H155">
         <v>4.16</v>
       </c>
       <c r="I155" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1101.2</v>
       </c>
     </row>
     <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6236,31 +6236,31 @@
         <v>134</v>
       </c>
       <c r="B156" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="C156" t="s">
         <v>136</v>
       </c>
       <c r="D156" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="E156">
-        <v>11625</v>
+        <v>11815.43</v>
       </c>
       <c r="F156">
-        <v>3137</v>
+        <v>2309</v>
       </c>
       <c r="G156">
-        <v>3.71</v>
+        <v>5.12</v>
       </c>
       <c r="H156">
         <v>4.16</v>
       </c>
       <c r="I156" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>2216.64</v>
       </c>
     </row>
     <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6268,31 +6268,31 @@
         <v>134</v>
       </c>
       <c r="B157" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C157" t="s">
         <v>136</v>
       </c>
       <c r="D157" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="E157">
-        <v>15626.17</v>
+        <v>20131.509999999998</v>
       </c>
       <c r="F157">
-        <v>4238</v>
+        <v>4291</v>
       </c>
       <c r="G157">
-        <v>3.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="H157">
         <v>4.16</v>
       </c>
       <c r="I157" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>2274.23</v>
       </c>
     </row>
     <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6300,31 +6300,31 @@
         <v>134</v>
       </c>
       <c r="B158" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="C158" t="s">
         <v>136</v>
       </c>
       <c r="D158" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="E158">
-        <v>16618.7</v>
+        <v>6577.7000000000007</v>
       </c>
       <c r="F158">
-        <v>4594</v>
+        <v>1004</v>
       </c>
       <c r="G158">
-        <v>3.62</v>
+        <v>6.55</v>
       </c>
       <c r="H158">
         <v>4.16</v>
       </c>
       <c r="I158" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>2399.56</v>
       </c>
     </row>
     <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6332,31 +6332,31 @@
         <v>134</v>
       </c>
       <c r="B159" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="C159" t="s">
         <v>136</v>
       </c>
       <c r="D159" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="E159">
-        <v>18229.400000000001</v>
+        <v>17225.689999999999</v>
       </c>
       <c r="F159">
-        <v>5073</v>
+        <v>2968</v>
       </c>
       <c r="G159">
-        <v>3.59</v>
+        <v>5.8</v>
       </c>
       <c r="H159">
         <v>4.16</v>
       </c>
       <c r="I159" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>4867.5200000000004</v>
       </c>
     </row>
     <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6364,31 +6364,31 @@
         <v>134</v>
       </c>
       <c r="B160" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="C160" t="s">
         <v>136</v>
       </c>
       <c r="D160" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="E160">
-        <v>7400</v>
+        <v>19893.66</v>
       </c>
       <c r="F160">
-        <v>2072</v>
+        <v>3379</v>
       </c>
       <c r="G160">
-        <v>3.57</v>
+        <v>5.89</v>
       </c>
       <c r="H160">
         <v>4.16</v>
       </c>
       <c r="I160" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>5845.67</v>
       </c>
     </row>
     <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6396,31 +6396,31 @@
         <v>134</v>
       </c>
       <c r="B161" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="C161" t="s">
         <v>136</v>
       </c>
       <c r="D161" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="E161">
-        <v>16424.25</v>
+        <v>20146.310000000001</v>
       </c>
       <c r="F161">
-        <v>4601</v>
+        <v>3417</v>
       </c>
       <c r="G161">
-        <v>3.57</v>
+        <v>5.9</v>
       </c>
       <c r="H161">
         <v>4.16</v>
       </c>
       <c r="I161" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>5945.58</v>
       </c>
     </row>
     <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6428,31 +6428,31 @@
         <v>134</v>
       </c>
       <c r="B162" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="C162" t="s">
         <v>136</v>
       </c>
       <c r="D162" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="E162">
-        <v>17973.98</v>
+        <v>22122.63</v>
       </c>
       <c r="F162">
-        <v>5051</v>
+        <v>3872</v>
       </c>
       <c r="G162">
-        <v>3.56</v>
+        <v>5.71</v>
       </c>
       <c r="H162">
         <v>4.16</v>
       </c>
       <c r="I162" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>6001.6</v>
       </c>
     </row>
     <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6460,31 +6460,31 @@
         <v>134</v>
       </c>
       <c r="B163" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="C163" t="s">
         <v>136</v>
       </c>
       <c r="D163" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="E163">
-        <v>15936.9</v>
+        <v>11743</v>
       </c>
       <c r="F163">
-        <v>4483</v>
+        <v>1368</v>
       </c>
       <c r="G163">
-        <v>3.55</v>
+        <v>8.58</v>
       </c>
       <c r="H163">
         <v>4.16</v>
       </c>
       <c r="I163" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>6046.56</v>
       </c>
     </row>
     <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6492,31 +6492,31 @@
         <v>134</v>
       </c>
       <c r="B164" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="C164" t="s">
         <v>136</v>
       </c>
       <c r="D164" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="E164">
-        <v>18777.650000000001</v>
+        <v>20879.95</v>
       </c>
       <c r="F164">
-        <v>5336</v>
+        <v>3550</v>
       </c>
       <c r="G164">
-        <v>3.52</v>
+        <v>5.88</v>
       </c>
       <c r="H164">
         <v>4.16</v>
       </c>
       <c r="I164" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6524,31 +6524,31 @@
         <v>134</v>
       </c>
       <c r="B165" t="s">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="C165" t="s">
         <v>136</v>
       </c>
       <c r="D165" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="E165">
-        <v>18030.87</v>
+        <v>24809.42</v>
       </c>
       <c r="F165">
-        <v>5124</v>
+        <v>4297</v>
       </c>
       <c r="G165">
-        <v>3.52</v>
+        <v>5.77</v>
       </c>
       <c r="H165">
         <v>4.16</v>
       </c>
       <c r="I165" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>6918.17</v>
       </c>
     </row>
     <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6556,31 +6556,31 @@
         <v>134</v>
       </c>
       <c r="B166" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="C166" t="s">
         <v>136</v>
       </c>
       <c r="D166" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="E166">
-        <v>6350</v>
+        <v>18777.66</v>
       </c>
       <c r="F166">
-        <v>1807</v>
+        <v>2800</v>
       </c>
       <c r="G166">
-        <v>3.51</v>
+        <v>6.71</v>
       </c>
       <c r="H166">
         <v>4.16</v>
       </c>
       <c r="I166" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6588,31 +6588,31 @@
         <v>134</v>
       </c>
       <c r="B167" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="C167" t="s">
         <v>136</v>
       </c>
       <c r="D167" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="E167">
-        <v>17515.59</v>
+        <v>22529.22</v>
       </c>
       <c r="F167">
-        <v>4997</v>
+        <v>3655</v>
       </c>
       <c r="G167">
-        <v>3.51</v>
+        <v>6.16</v>
       </c>
       <c r="H167">
         <v>4.16</v>
       </c>
       <c r="I167" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6620,31 +6620,31 @@
         <v>134</v>
       </c>
       <c r="B168" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="C168" t="s">
         <v>136</v>
       </c>
       <c r="D168" t="s">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="E168">
-        <v>16583.830000000002</v>
+        <v>22343.85</v>
       </c>
       <c r="F168">
-        <v>4753</v>
+        <v>3544</v>
       </c>
       <c r="G168">
-        <v>3.49</v>
+        <v>6.3</v>
       </c>
       <c r="H168">
         <v>4.16</v>
       </c>
       <c r="I168" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J168">
-        <v>0</v>
+        <v>7584.16</v>
       </c>
     </row>
     <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6652,31 +6652,31 @@
         <v>134</v>
       </c>
       <c r="B169" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C169" t="s">
         <v>136</v>
       </c>
       <c r="D169" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="E169">
-        <v>12877.57</v>
+        <v>22956.67</v>
       </c>
       <c r="F169">
-        <v>4016</v>
+        <v>3629</v>
       </c>
       <c r="G169">
-        <v>3.21</v>
+        <v>6.33</v>
       </c>
       <c r="H169">
         <v>4.16</v>
       </c>
       <c r="I169" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>7874.93</v>
       </c>
     </row>
     <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6684,31 +6684,31 @@
         <v>134</v>
       </c>
       <c r="B170" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="C170" t="s">
         <v>136</v>
       </c>
       <c r="D170" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="E170">
-        <v>5876.6100000000006</v>
+        <v>20359.150000000001</v>
       </c>
       <c r="F170">
-        <v>1914</v>
+        <v>2966</v>
       </c>
       <c r="G170">
-        <v>3.07</v>
+        <v>6.86</v>
       </c>
       <c r="H170">
         <v>4.16</v>
       </c>
       <c r="I170" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>8008.2</v>
       </c>
     </row>
     <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6716,31 +6716,31 @@
         <v>134</v>
       </c>
       <c r="B171" t="s">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="C171" t="s">
         <v>136</v>
       </c>
       <c r="D171" t="s">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="E171">
-        <v>2062</v>
+        <v>20417.77</v>
       </c>
       <c r="F171">
-        <v>745</v>
+        <v>2720</v>
       </c>
       <c r="G171">
-        <v>2.77</v>
+        <v>7.51</v>
       </c>
       <c r="H171">
         <v>4.16</v>
       </c>
       <c r="I171" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6748,31 +6748,31 @@
         <v>134</v>
       </c>
       <c r="B172" t="s">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="C172" t="s">
         <v>136</v>
       </c>
       <c r="D172" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="E172">
-        <v>16492.169999999998</v>
+        <v>27084.01</v>
       </c>
       <c r="F172">
-        <v>6298</v>
+        <v>4314</v>
       </c>
       <c r="G172">
-        <v>2.62</v>
+        <v>6.28</v>
       </c>
       <c r="H172">
         <v>4.16</v>
       </c>
       <c r="I172" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>9145.68</v>
       </c>
     </row>
     <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6780,31 +6780,31 @@
         <v>134</v>
       </c>
       <c r="B173" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="C173" t="s">
         <v>136</v>
       </c>
       <c r="D173" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="E173">
-        <v>4385</v>
+        <v>25688.14</v>
       </c>
       <c r="F173">
-        <v>1745</v>
+        <v>3979</v>
       </c>
       <c r="G173">
-        <v>2.5099999999999998</v>
+        <v>6.46</v>
       </c>
       <c r="H173">
         <v>4.16</v>
       </c>
       <c r="I173" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>9151.7000000000007</v>
       </c>
     </row>
     <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6812,31 +6812,31 @@
         <v>134</v>
       </c>
       <c r="B174" t="s">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="C174" t="s">
         <v>136</v>
       </c>
       <c r="D174" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="E174">
-        <v>20050.72</v>
+        <v>21106.98</v>
       </c>
       <c r="F174">
-        <v>28637</v>
+        <v>2793</v>
       </c>
       <c r="G174">
-        <v>0.7</v>
+        <v>7.56</v>
       </c>
       <c r="H174">
         <v>4.16</v>
       </c>
       <c r="I174" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J174">
-        <v>0</v>
+        <v>9496.2000000000007</v>
       </c>
     </row>
     <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -6844,98 +6844,98 @@
         <v>134</v>
       </c>
       <c r="B175" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="C175" t="s">
         <v>136</v>
       </c>
       <c r="D175" t="s">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="E175">
-        <v>16862.43</v>
+        <v>20634.28</v>
       </c>
       <c r="F175">
-        <v>34405</v>
+        <v>2666</v>
       </c>
       <c r="G175">
-        <v>0.49</v>
+        <v>7.74</v>
       </c>
       <c r="H175">
         <v>4.16</v>
       </c>
       <c r="I175" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J175">
-        <v>0</v>
+        <v>9544.2800000000007</v>
       </c>
     </row>
     <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="B176" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="C176" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="D176" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="E176">
-        <v>14296.04</v>
+        <v>24644.01</v>
       </c>
       <c r="F176">
-        <v>2580</v>
+        <v>3458</v>
       </c>
       <c r="G176">
-        <v>5.54</v>
+        <v>7.13</v>
       </c>
       <c r="H176">
-        <v>2.5099999999999998</v>
+        <v>4.16</v>
       </c>
       <c r="I176" t="s">
         <v>13</v>
       </c>
       <c r="J176">
-        <v>7817.4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>10270.26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>264</v>
       </c>
       <c r="B177" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C177" t="s">
         <v>266</v>
       </c>
       <c r="D177" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E177">
-        <v>14701.57</v>
+        <v>50</v>
       </c>
       <c r="F177">
-        <v>3474</v>
+        <v>19.900000000000091</v>
       </c>
       <c r="G177">
-        <v>4.2300000000000004</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H177">
         <v>2.5099999999999998</v>
       </c>
       <c r="I177" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J177">
-        <v>5975.28</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>264</v>
       </c>
@@ -6946,28 +6946,28 @@
         <v>266</v>
       </c>
       <c r="D178" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E178">
-        <v>7583</v>
+        <v>3458</v>
       </c>
       <c r="F178">
-        <v>1687</v>
+        <v>1528</v>
       </c>
       <c r="G178">
-        <v>4.49</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H178">
         <v>2.5099999999999998</v>
       </c>
       <c r="I178" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J178">
-        <v>3340.26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>264</v>
       </c>
@@ -6978,28 +6978,28 @@
         <v>266</v>
       </c>
       <c r="D179" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E179">
-        <v>5231</v>
+        <v>4081</v>
       </c>
       <c r="F179">
-        <v>876</v>
+        <v>1980</v>
       </c>
       <c r="G179">
-        <v>5.97</v>
+        <v>2.06</v>
       </c>
       <c r="H179">
         <v>2.5099999999999998</v>
       </c>
       <c r="I179" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J179">
-        <v>3030.96</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>264</v>
       </c>
@@ -7010,28 +7010,28 @@
         <v>266</v>
       </c>
       <c r="D180" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E180">
-        <v>2600</v>
+        <v>1081</v>
       </c>
       <c r="F180">
-        <v>500.59999999999849</v>
+        <v>585</v>
       </c>
       <c r="G180">
-        <v>5.19</v>
+        <v>1.85</v>
       </c>
       <c r="H180">
         <v>2.5099999999999998</v>
       </c>
       <c r="I180" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J180">
-        <v>1341.61</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>264</v>
       </c>
@@ -7042,28 +7042,28 @@
         <v>266</v>
       </c>
       <c r="D181" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E181">
-        <v>5699</v>
+        <v>375</v>
       </c>
       <c r="F181">
-        <v>1798</v>
+        <v>211.90000000000049</v>
       </c>
       <c r="G181">
-        <v>3.17</v>
+        <v>1.77</v>
       </c>
       <c r="H181">
         <v>2.5099999999999998</v>
       </c>
       <c r="I181" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J181">
-        <v>1186.68</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>264</v>
       </c>
@@ -7074,28 +7074,28 @@
         <v>266</v>
       </c>
       <c r="D182" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E182">
-        <v>1550</v>
+        <v>4390</v>
       </c>
       <c r="F182">
-        <v>448.77</v>
+        <v>2513</v>
       </c>
       <c r="G182">
-        <v>3.45</v>
+        <v>1.75</v>
       </c>
       <c r="H182">
         <v>2.5099999999999998</v>
       </c>
       <c r="I182" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J182">
-        <v>421.84</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>264</v>
       </c>
@@ -7106,28 +7106,28 @@
         <v>266</v>
       </c>
       <c r="D183" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E183">
-        <v>1442</v>
+        <v>3839</v>
       </c>
       <c r="F183">
-        <v>526</v>
+        <v>2308</v>
       </c>
       <c r="G183">
-        <v>2.74</v>
+        <v>1.66</v>
       </c>
       <c r="H183">
         <v>2.5099999999999998</v>
       </c>
       <c r="I183" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J183">
-        <v>120.98</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>264</v>
       </c>
@@ -7138,16 +7138,16 @@
         <v>266</v>
       </c>
       <c r="D184" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E184">
-        <v>50</v>
+        <v>295</v>
       </c>
       <c r="F184">
-        <v>19.900000000000091</v>
+        <v>209.09999999999991</v>
       </c>
       <c r="G184">
-        <v>2.5099999999999998</v>
+        <v>1.41</v>
       </c>
       <c r="H184">
         <v>2.5099999999999998</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>264</v>
       </c>
@@ -7170,16 +7170,16 @@
         <v>266</v>
       </c>
       <c r="D185" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E185">
-        <v>3458</v>
+        <v>1495</v>
       </c>
       <c r="F185">
-        <v>1528</v>
+        <v>8310.9</v>
       </c>
       <c r="G185">
-        <v>2.2599999999999998</v>
+        <v>0.18</v>
       </c>
       <c r="H185">
         <v>2.5099999999999998</v>
@@ -7202,25 +7202,25 @@
         <v>266</v>
       </c>
       <c r="D186" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E186">
-        <v>4081</v>
+        <v>1442</v>
       </c>
       <c r="F186">
-        <v>1980</v>
+        <v>526</v>
       </c>
       <c r="G186">
-        <v>2.06</v>
+        <v>2.74</v>
       </c>
       <c r="H186">
         <v>2.5099999999999998</v>
       </c>
       <c r="I186" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>120.98</v>
       </c>
     </row>
     <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -7234,25 +7234,25 @@
         <v>266</v>
       </c>
       <c r="D187" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E187">
-        <v>1081</v>
+        <v>1550</v>
       </c>
       <c r="F187">
-        <v>585</v>
+        <v>448.77</v>
       </c>
       <c r="G187">
-        <v>1.85</v>
+        <v>3.45</v>
       </c>
       <c r="H187">
         <v>2.5099999999999998</v>
       </c>
       <c r="I187" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>421.84</v>
       </c>
     </row>
     <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -7266,25 +7266,25 @@
         <v>266</v>
       </c>
       <c r="D188" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E188">
-        <v>375</v>
+        <v>5699</v>
       </c>
       <c r="F188">
-        <v>211.90000000000049</v>
+        <v>1798</v>
       </c>
       <c r="G188">
-        <v>1.77</v>
+        <v>3.17</v>
       </c>
       <c r="H188">
         <v>2.5099999999999998</v>
       </c>
       <c r="I188" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J188">
-        <v>0</v>
+        <v>1186.68</v>
       </c>
     </row>
     <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -7298,25 +7298,25 @@
         <v>266</v>
       </c>
       <c r="D189" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E189">
-        <v>4390</v>
+        <v>2600</v>
       </c>
       <c r="F189">
-        <v>2513</v>
+        <v>500.59999999999849</v>
       </c>
       <c r="G189">
-        <v>1.75</v>
+        <v>5.19</v>
       </c>
       <c r="H189">
         <v>2.5099999999999998</v>
       </c>
       <c r="I189" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J189">
-        <v>0</v>
+        <v>1341.61</v>
       </c>
     </row>
     <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -7330,25 +7330,25 @@
         <v>266</v>
       </c>
       <c r="D190" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E190">
-        <v>3839</v>
+        <v>5231</v>
       </c>
       <c r="F190">
-        <v>2308</v>
+        <v>876</v>
       </c>
       <c r="G190">
-        <v>1.66</v>
+        <v>5.97</v>
       </c>
       <c r="H190">
         <v>2.5099999999999998</v>
       </c>
       <c r="I190" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>3030.96</v>
       </c>
     </row>
     <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -7362,25 +7362,25 @@
         <v>266</v>
       </c>
       <c r="D191" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E191">
-        <v>295</v>
+        <v>7583</v>
       </c>
       <c r="F191">
-        <v>209.09999999999991</v>
+        <v>1687</v>
       </c>
       <c r="G191">
-        <v>1.41</v>
+        <v>4.49</v>
       </c>
       <c r="H191">
         <v>2.5099999999999998</v>
       </c>
       <c r="I191" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>3340.26</v>
       </c>
     </row>
     <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -7388,74 +7388,74 @@
         <v>264</v>
       </c>
       <c r="B192" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C192" t="s">
         <v>266</v>
       </c>
       <c r="D192" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E192">
-        <v>1495</v>
+        <v>14701.57</v>
       </c>
       <c r="F192">
-        <v>8310.9</v>
+        <v>3474</v>
       </c>
       <c r="G192">
-        <v>0.18</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="H192">
         <v>2.5099999999999998</v>
       </c>
       <c r="I192" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>5975.28</v>
       </c>
     </row>
     <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B193" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="C193" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D193" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="E193">
-        <v>38926</v>
+        <v>14296.04</v>
       </c>
       <c r="F193">
-        <v>2658</v>
+        <v>2580</v>
       </c>
       <c r="G193">
-        <v>14.64</v>
+        <v>5.54</v>
       </c>
       <c r="H193">
-        <v>14.64</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I193" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>7817.4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J193" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
+    <filterColumn colId="8">
       <filters>
-        <filter val="28T UP - (-)"/>
+        <filter val="EFISIEN (Hijau)"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:J111">
-      <sortCondition descending="1" ref="J1:J193"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J193">
+      <sortCondition ref="C1:C193"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Laporan_Benchmark_BBM.xlsx
+++ b/Laporan_Benchmark_BBM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74A633-1730-46AE-8658-A4497FBDC67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB2E3CF-C6C9-43D5-8E32-884990C0A68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1249,12 +1249,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>78.61</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>164.22</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>193.32</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2359,7 +2358,7 @@
         <v>217.35</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>217.89</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>292.64</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>341.31</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>462.15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>490.77</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2551,7 +2550,7 @@
         <v>496.32</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>563.24</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>772.8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2647,7 +2646,7 @@
         <v>792.78</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>974.75</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>1181.05</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>1194.08</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2775,7 +2774,7 @@
         <v>1214.08</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>1241.31</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>1467.7</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>2122.36</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>2554.9299999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>3456.39</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>4520.1000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>4642.5600000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>4730.18</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3159,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3191,7 +3190,7 @@
         <v>298.68</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>194.7</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>400.14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>498.52</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>593.65</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -4215,7 +4214,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>1193.19</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>84</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>1309.46</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>84</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>3294.7</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>84</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>3441.01</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>84</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>5129.46</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>84</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>5215.79</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>84</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>5282.94</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>84</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>6349.2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -4503,7 +4502,7 @@
         <v>6547.48</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>84</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>7824.6</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>84</v>
       </c>
@@ -4567,7 +4566,7 @@
         <v>9328.2199999999993</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>84</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>10047.07</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>10583.37</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>10587.03</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>11734.56</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -4727,7 +4726,7 @@
         <v>12155.52</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>84</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>13674.24</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -4791,7 +4790,7 @@
         <v>18562.740000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>84</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>134</v>
       </c>
@@ -5911,7 +5910,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>134</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>205.5</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>134</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>268.94</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>134</v>
       </c>
@@ -6007,7 +6006,7 @@
         <v>317.33999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>134</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>531.6</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>134</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>548.86</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>134</v>
       </c>
@@ -6103,7 +6102,7 @@
         <v>622.35</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>134</v>
       </c>
@@ -6135,7 +6134,7 @@
         <v>805.6</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>134</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>1022.34</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>134</v>
       </c>
@@ -6199,7 +6198,7 @@
         <v>1044.58</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>134</v>
       </c>
@@ -6231,7 +6230,7 @@
         <v>1101.2</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>134</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>2216.64</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>134</v>
       </c>
@@ -6295,7 +6294,7 @@
         <v>2274.23</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>134</v>
       </c>
@@ -6327,7 +6326,7 @@
         <v>2399.56</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>134</v>
       </c>
@@ -6359,7 +6358,7 @@
         <v>4867.5200000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>134</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>5845.67</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>134</v>
       </c>
@@ -6423,7 +6422,7 @@
         <v>5945.58</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>134</v>
       </c>
@@ -6455,7 +6454,7 @@
         <v>6001.6</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>134</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>6046.56</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>134</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>6106</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>134</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>6918.17</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>134</v>
       </c>
@@ -6583,7 +6582,7 @@
         <v>7140</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>134</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>7310</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>134</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>7584.16</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>134</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>7874.93</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>134</v>
       </c>
@@ -6711,7 +6710,7 @@
         <v>8008.2</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>134</v>
       </c>
@@ -6743,7 +6742,7 @@
         <v>9112</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>134</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>9145.68</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>134</v>
       </c>
@@ -6807,7 +6806,7 @@
         <v>9151.7000000000007</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>134</v>
       </c>
@@ -6839,7 +6838,7 @@
         <v>9496.2000000000007</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>134</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>9544.2800000000007</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>134</v>
       </c>
@@ -7191,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>264</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>120.98</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>264</v>
       </c>
@@ -7255,7 +7254,7 @@
         <v>421.84</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>264</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>1186.68</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>264</v>
       </c>
@@ -7319,7 +7318,7 @@
         <v>1341.61</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>264</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>3030.96</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>264</v>
       </c>
@@ -7383,7 +7382,7 @@
         <v>3340.26</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>264</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>5975.28</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>264</v>
       </c>
@@ -7449,11 +7448,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J193" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="EFISIEN (Hijau)"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J193">
       <sortCondition ref="C1:C193"/>
     </sortState>

--- a/Laporan_Benchmark_BBM.xlsx
+++ b/Laporan_Benchmark_BBM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB2E3CF-C6C9-43D5-8E32-884990C0A68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096E0EB-9D4C-4DAE-9319-1E0213C29550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1252,8 +1252,8 @@
   <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
